--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -91,7 +97,7 @@
     <t>Notch3</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H2">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I2">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J2">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.97368501288477</v>
+        <v>4.533117</v>
       </c>
       <c r="N2">
-        <v>3.97368501288477</v>
+        <v>9.066234</v>
       </c>
       <c r="O2">
-        <v>0.03734494411532919</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P2">
-        <v>0.03734494411532919</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q2">
-        <v>65.59374805830652</v>
+        <v>75.932125901361</v>
       </c>
       <c r="R2">
-        <v>65.59374805830652</v>
+        <v>303.728503605444</v>
       </c>
       <c r="S2">
-        <v>0.01887439740943065</v>
+        <v>0.01943772419519509</v>
       </c>
       <c r="T2">
-        <v>0.01887439740943065</v>
+        <v>0.0158414579303594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H3">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I3">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J3">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56895760325</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N3">
-        <v>2.56895760325</v>
+        <v>8.157581</v>
       </c>
       <c r="O3">
-        <v>0.02414322670693357</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P3">
-        <v>0.02414322670693357</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q3">
-        <v>42.40586691035188</v>
+        <v>45.54794324689101</v>
       </c>
       <c r="R3">
-        <v>42.40586691035188</v>
+        <v>273.2876594813461</v>
       </c>
       <c r="S3">
-        <v>0.01220215658123303</v>
+        <v>0.01165973358419558</v>
       </c>
       <c r="T3">
-        <v>0.01220215658123303</v>
+        <v>0.01425376581114045</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H4">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I4">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J4">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.91981537628716</v>
+        <v>0.063204</v>
       </c>
       <c r="N4">
-        <v>7.91981537628716</v>
+        <v>0.189612</v>
       </c>
       <c r="O4">
-        <v>0.07443092788485837</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P4">
-        <v>0.07443092788485837</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q4">
-        <v>130.732650619267</v>
+        <v>1.058700687732</v>
       </c>
       <c r="R4">
-        <v>130.732650619267</v>
+        <v>6.352204126392</v>
       </c>
       <c r="S4">
-        <v>0.03761791443878044</v>
+        <v>0.0002710148271119211</v>
       </c>
       <c r="T4">
-        <v>0.03761791443878044</v>
+        <v>0.0003313096177631535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H5">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I5">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J5">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>91.942441171791</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N5">
-        <v>91.942441171791</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O5">
-        <v>0.8640809012928788</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P5">
-        <v>0.8640809012928788</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q5">
-        <v>1517.696873942688</v>
+        <v>2.363271282349</v>
       </c>
       <c r="R5">
-        <v>1517.696873942688</v>
+        <v>14.179627694094</v>
       </c>
       <c r="S5">
-        <v>0.436712564745983</v>
+        <v>0.0006049694360513292</v>
       </c>
       <c r="T5">
-        <v>0.436712564745983</v>
+        <v>0.0007395617234395216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.751690892686669</v>
+        <v>16.750533</v>
       </c>
       <c r="H6">
-        <v>8.751690892686669</v>
+        <v>33.501066</v>
       </c>
       <c r="I6">
-        <v>0.2679564665528635</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J6">
-        <v>0.2679564665528635</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.97368501288477</v>
+        <v>15.202168</v>
       </c>
       <c r="N6">
-        <v>3.97368501288477</v>
+        <v>45.606504</v>
       </c>
       <c r="O6">
-        <v>0.03734494411532919</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P6">
-        <v>0.03734494411532919</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q6">
-        <v>34.77646293766915</v>
+        <v>254.644416755544</v>
       </c>
       <c r="R6">
-        <v>34.77646293766915</v>
+        <v>1527.866500533264</v>
       </c>
       <c r="S6">
-        <v>0.01000681926875776</v>
+        <v>0.06518595234868649</v>
       </c>
       <c r="T6">
-        <v>0.01000681926875776</v>
+        <v>0.07968838157792614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.751690892686669</v>
+        <v>16.750533</v>
       </c>
       <c r="H7">
-        <v>8.751690892686669</v>
+        <v>33.501066</v>
       </c>
       <c r="I7">
-        <v>0.2679564665528635</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J7">
-        <v>0.2679564665528635</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56895760325</v>
+        <v>92.32611850000001</v>
       </c>
       <c r="N7">
-        <v>2.56895760325</v>
+        <v>184.652237</v>
       </c>
       <c r="O7">
-        <v>0.02414322670693357</v>
+        <v>0.802941330007389</v>
       </c>
       <c r="P7">
-        <v>0.02414322670693357</v>
+        <v>0.7442790833867324</v>
       </c>
       <c r="Q7">
-        <v>22.4827228600612</v>
+        <v>1546.511694696161</v>
       </c>
       <c r="R7">
-        <v>22.4827228600612</v>
+        <v>6186.046778784643</v>
       </c>
       <c r="S7">
-        <v>0.006469333719574646</v>
+        <v>0.3958886627933714</v>
       </c>
       <c r="T7">
-        <v>0.006469333719574646</v>
+        <v>0.3226434089592496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H8">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I8">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J8">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.91981537628716</v>
+        <v>4.533117</v>
       </c>
       <c r="N8">
-        <v>7.91981537628716</v>
+        <v>9.066234</v>
       </c>
       <c r="O8">
-        <v>0.07443092788485837</v>
+        <v>0.0394235894695292</v>
       </c>
       <c r="P8">
-        <v>0.07443092788485837</v>
+        <v>0.03654333378744622</v>
       </c>
       <c r="Q8">
-        <v>69.31177610041219</v>
+        <v>0.888288452774</v>
       </c>
       <c r="R8">
-        <v>69.31177610041219</v>
+        <v>5.329730716644</v>
       </c>
       <c r="S8">
-        <v>0.01994424843827765</v>
+        <v>0.0002273913148859713</v>
       </c>
       <c r="T8">
-        <v>0.01994424843827765</v>
+        <v>0.0002779808411973714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H9">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I9">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J9">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.942441171791</v>
+        <v>2.719193666666667</v>
       </c>
       <c r="N9">
-        <v>91.942441171791</v>
+        <v>8.157581</v>
       </c>
       <c r="O9">
-        <v>0.8640809012928788</v>
+        <v>0.02364827000997559</v>
       </c>
       <c r="P9">
-        <v>0.8640809012928788</v>
+        <v>0.03288081968556397</v>
       </c>
       <c r="Q9">
-        <v>804.6518250545432</v>
+        <v>0.5328405013495556</v>
       </c>
       <c r="R9">
-        <v>804.6518250545432</v>
+        <v>4.795564512146</v>
       </c>
       <c r="S9">
-        <v>0.2315360651262534</v>
+        <v>0.0001364008525023596</v>
       </c>
       <c r="T9">
-        <v>0.2315360651262534</v>
+        <v>0.0002501205272790989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>7.40214491142723</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H10">
-        <v>7.40214491142723</v>
+        <v>0.587866</v>
       </c>
       <c r="I10">
-        <v>0.2266365002717094</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J10">
-        <v>0.2266365002717094</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.97368501288477</v>
+        <v>0.063204</v>
       </c>
       <c r="N10">
-        <v>3.97368501288477</v>
+        <v>0.189612</v>
       </c>
       <c r="O10">
-        <v>0.03734494411532919</v>
+        <v>0.0005496722341011987</v>
       </c>
       <c r="P10">
-        <v>0.03734494411532919</v>
+        <v>0.0007642704353434132</v>
       </c>
       <c r="Q10">
-        <v>29.41379229773965</v>
+        <v>0.012385160888</v>
       </c>
       <c r="R10">
-        <v>29.41379229773965</v>
+        <v>0.111466447992</v>
       </c>
       <c r="S10">
-        <v>0.008463727437140777</v>
+        <v>3.170454384048091E-06</v>
       </c>
       <c r="T10">
-        <v>0.008463727437140777</v>
+        <v>5.813715293595552E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>7.40214491142723</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H11">
-        <v>7.40214491142723</v>
+        <v>0.587866</v>
       </c>
       <c r="I11">
-        <v>0.2266365002717094</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J11">
-        <v>0.2266365002717094</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.56895760325</v>
+        <v>0.1410863333333333</v>
       </c>
       <c r="N11">
-        <v>2.56895760325</v>
+        <v>0.4232589999999999</v>
       </c>
       <c r="O11">
-        <v>0.02414322670693357</v>
+        <v>0.001226998924822476</v>
       </c>
       <c r="P11">
-        <v>0.02414322670693357</v>
+        <v>0.001706033057997477</v>
       </c>
       <c r="Q11">
-        <v>19.01579645056928</v>
+        <v>0.02764661947711111</v>
       </c>
       <c r="R11">
-        <v>19.01579645056928</v>
+        <v>0.248819575294</v>
       </c>
       <c r="S11">
-        <v>0.005471736406125893</v>
+        <v>7.077206886366954E-06</v>
       </c>
       <c r="T11">
-        <v>0.005471736406125893</v>
+        <v>1.297759277604772E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>7.40214491142723</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H12">
-        <v>7.40214491142723</v>
+        <v>0.587866</v>
       </c>
       <c r="I12">
-        <v>0.2266365002717094</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J12">
-        <v>0.2266365002717094</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.91981537628716</v>
+        <v>15.202168</v>
       </c>
       <c r="N12">
-        <v>7.91981537628716</v>
+        <v>45.606504</v>
       </c>
       <c r="O12">
-        <v>0.07443092788485837</v>
+        <v>0.1322101393541825</v>
       </c>
       <c r="P12">
-        <v>0.07443092788485837</v>
+        <v>0.1838264596469164</v>
       </c>
       <c r="Q12">
-        <v>58.62362108702714</v>
+        <v>2.978945897829334</v>
       </c>
       <c r="R12">
-        <v>58.62362108702714</v>
+        <v>26.810513080464</v>
       </c>
       <c r="S12">
-        <v>0.01686876500780029</v>
+        <v>0.0007625748399252515</v>
       </c>
       <c r="T12">
-        <v>0.01686876500780029</v>
+        <v>0.001398346253360688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1959553333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.587866</v>
+      </c>
+      <c r="I13">
+        <v>0.005767899827125681</v>
+      </c>
+      <c r="J13">
+        <v>0.007606882360931899</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N13">
+        <v>184.652237</v>
+      </c>
+      <c r="O13">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P13">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q13">
+        <v>18.09179532604034</v>
+      </c>
+      <c r="R13">
+        <v>108.550771956242</v>
+      </c>
+      <c r="S13">
+        <v>0.004631285158541684</v>
+      </c>
+      <c r="T13">
+        <v>0.005661643431025097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.099916</v>
+      </c>
+      <c r="I14">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J14">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.533117</v>
+      </c>
+      <c r="N14">
+        <v>9.066234</v>
+      </c>
+      <c r="O14">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P14">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q14">
+        <v>0.150976972724</v>
+      </c>
+      <c r="R14">
+        <v>0.905861836344</v>
+      </c>
+      <c r="S14">
+        <v>3.864831546329726E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.724670882322937E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.099916</v>
+      </c>
+      <c r="I15">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J15">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N15">
+        <v>8.157581</v>
+      </c>
+      <c r="O15">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P15">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q15">
+        <v>0.09056365146622224</v>
+      </c>
+      <c r="R15">
+        <v>0.815072863196</v>
+      </c>
+      <c r="S15">
+        <v>2.318322131000221E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.25114611214434E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.099916</v>
+      </c>
+      <c r="I16">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J16">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.063204</v>
+      </c>
+      <c r="N16">
+        <v>0.189612</v>
+      </c>
+      <c r="O16">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P16">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q16">
+        <v>0.002105030288</v>
+      </c>
+      <c r="R16">
+        <v>0.018945272592</v>
+      </c>
+      <c r="S16">
+        <v>5.388628024695237E-07</v>
+      </c>
+      <c r="T16">
+        <v>9.881217441983262E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.099916</v>
+      </c>
+      <c r="I17">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J17">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P17">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q17">
+        <v>0.004698927360444444</v>
+      </c>
+      <c r="R17">
+        <v>0.04229034624399999</v>
+      </c>
+      <c r="S17">
+        <v>1.202869707141152E-06</v>
+      </c>
+      <c r="T17">
+        <v>2.205722324154797E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.099916</v>
+      </c>
+      <c r="I18">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J18">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.202168</v>
+      </c>
+      <c r="N18">
+        <v>45.606504</v>
+      </c>
+      <c r="O18">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P18">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q18">
+        <v>0.5063132726293333</v>
+      </c>
+      <c r="R18">
+        <v>4.556819453664001</v>
+      </c>
+      <c r="S18">
+        <v>0.0001296101963814397</v>
+      </c>
+      <c r="T18">
+        <v>0.0002376683874399718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.099916</v>
+      </c>
+      <c r="I19">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J19">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N19">
+        <v>184.652237</v>
+      </c>
+      <c r="O19">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P19">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q19">
+        <v>3.074952152015333</v>
+      </c>
+      <c r="R19">
+        <v>18.449712912092</v>
+      </c>
+      <c r="S19">
+        <v>0.0007871513030194821</v>
+      </c>
+      <c r="T19">
+        <v>0.0009622750168478932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H20">
+        <v>27.314064</v>
+      </c>
+      <c r="I20">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J20">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>4.533117</v>
+      </c>
+      <c r="N20">
+        <v>9.066234</v>
+      </c>
+      <c r="O20">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P20">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q20">
+        <v>41.272615952496</v>
+      </c>
+      <c r="R20">
+        <v>247.635695714976</v>
+      </c>
+      <c r="S20">
+        <v>0.0105653004729642</v>
+      </c>
+      <c r="T20">
+        <v>0.0129158455961713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H21">
+        <v>27.314064</v>
+      </c>
+      <c r="I21">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J21">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N21">
+        <v>8.157581</v>
+      </c>
+      <c r="O21">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P21">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q21">
+        <v>24.757409946576</v>
+      </c>
+      <c r="R21">
+        <v>222.816689519184</v>
+      </c>
+      <c r="S21">
+        <v>0.006337603492809602</v>
+      </c>
+      <c r="T21">
+        <v>0.01162136964855095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H22">
+        <v>27.314064</v>
+      </c>
+      <c r="I22">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J22">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.063204</v>
+      </c>
+      <c r="N22">
+        <v>0.189612</v>
+      </c>
+      <c r="O22">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P22">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q22">
+        <v>0.5754527003519999</v>
+      </c>
+      <c r="R22">
+        <v>5.179074303168</v>
+      </c>
+      <c r="S22">
+        <v>0.0001473090703578198</v>
+      </c>
+      <c r="T22">
+        <v>0.0002701231090198238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>7.40214491142723</v>
-      </c>
-      <c r="H13">
-        <v>7.40214491142723</v>
-      </c>
-      <c r="I13">
-        <v>0.2266365002717094</v>
-      </c>
-      <c r="J13">
-        <v>0.2266365002717094</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>91.942441171791</v>
-      </c>
-      <c r="N13">
-        <v>91.942441171791</v>
-      </c>
-      <c r="O13">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="P13">
-        <v>0.8640809012928788</v>
-      </c>
-      <c r="Q13">
-        <v>680.5712730639702</v>
-      </c>
-      <c r="R13">
-        <v>680.5712730639702</v>
-      </c>
-      <c r="S13">
-        <v>0.1958322714206425</v>
-      </c>
-      <c r="T13">
-        <v>0.1958322714206425</v>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H23">
+        <v>27.314064</v>
+      </c>
+      <c r="I23">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J23">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P23">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q23">
+        <v>1.284547046064</v>
+      </c>
+      <c r="R23">
+        <v>11.560923414576</v>
+      </c>
+      <c r="S23">
+        <v>0.0003288288178521426</v>
+      </c>
+      <c r="T23">
+        <v>0.000602978909565964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H24">
+        <v>27.314064</v>
+      </c>
+      <c r="I24">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J24">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.202168</v>
+      </c>
+      <c r="N24">
+        <v>45.606504</v>
+      </c>
+      <c r="O24">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P24">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q24">
+        <v>138.410996563584</v>
+      </c>
+      <c r="R24">
+        <v>1245.698969072256</v>
+      </c>
+      <c r="S24">
+        <v>0.03543157451274282</v>
+      </c>
+      <c r="T24">
+        <v>0.06497147148917277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H25">
+        <v>27.314064</v>
+      </c>
+      <c r="I25">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J25">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N25">
+        <v>184.652237</v>
+      </c>
+      <c r="O25">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P25">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q25">
+        <v>840.600503193528</v>
+      </c>
+      <c r="R25">
+        <v>5043.603019161168</v>
+      </c>
+      <c r="S25">
+        <v>0.215183765046214</v>
+      </c>
+      <c r="T25">
+        <v>0.2630573821588578</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.888947</v>
+      </c>
+      <c r="H26">
+        <v>15.777894</v>
+      </c>
+      <c r="I26">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J26">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.533117</v>
+      </c>
+      <c r="N26">
+        <v>9.066234</v>
+      </c>
+      <c r="O26">
+        <v>0.0394235894695292</v>
+      </c>
+      <c r="P26">
+        <v>0.03654333378744622</v>
+      </c>
+      <c r="Q26">
+        <v>35.761519757799</v>
+      </c>
+      <c r="R26">
+        <v>143.046079031196</v>
+      </c>
+      <c r="S26">
+        <v>0.009154525171020632</v>
+      </c>
+      <c r="T26">
+        <v>0.007460802710894929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.888947</v>
+      </c>
+      <c r="H27">
+        <v>15.777894</v>
+      </c>
+      <c r="I27">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J27">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.719193666666667</v>
+      </c>
+      <c r="N27">
+        <v>8.157581</v>
+      </c>
+      <c r="O27">
+        <v>0.02364827000997559</v>
+      </c>
+      <c r="P27">
+        <v>0.03288081968556397</v>
+      </c>
+      <c r="Q27">
+        <v>21.451574719069</v>
+      </c>
+      <c r="R27">
+        <v>128.709448314414</v>
+      </c>
+      <c r="S27">
+        <v>0.005491348859158034</v>
+      </c>
+      <c r="T27">
+        <v>0.006713052237472028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.888947</v>
+      </c>
+      <c r="H28">
+        <v>15.777894</v>
+      </c>
+      <c r="I28">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J28">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.063204</v>
+      </c>
+      <c r="N28">
+        <v>0.189612</v>
+      </c>
+      <c r="O28">
+        <v>0.0005496722341011987</v>
+      </c>
+      <c r="P28">
+        <v>0.0007642704353434132</v>
+      </c>
+      <c r="Q28">
+        <v>0.498613006188</v>
+      </c>
+      <c r="R28">
+        <v>2.991678037128</v>
+      </c>
+      <c r="S28">
+        <v>0.00012763901944494</v>
+      </c>
+      <c r="T28">
+        <v>0.0001560358715226421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.888947</v>
+      </c>
+      <c r="H29">
+        <v>15.777894</v>
+      </c>
+      <c r="I29">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J29">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1410863333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.4232589999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001226998924822476</v>
+      </c>
+      <c r="P29">
+        <v>0.001706033057997477</v>
+      </c>
+      <c r="Q29">
+        <v>1.113022606091</v>
+      </c>
+      <c r="R29">
+        <v>6.678135636545999</v>
+      </c>
+      <c r="S29">
+        <v>0.0002849205943254955</v>
+      </c>
+      <c r="T29">
+        <v>0.0003483091098917893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.888947</v>
+      </c>
+      <c r="H30">
+        <v>15.777894</v>
+      </c>
+      <c r="I30">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J30">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.202168</v>
+      </c>
+      <c r="N30">
+        <v>45.606504</v>
+      </c>
+      <c r="O30">
+        <v>0.1322101393541825</v>
+      </c>
+      <c r="P30">
+        <v>0.1838264596469164</v>
+      </c>
+      <c r="Q30">
+        <v>119.929097637096</v>
+      </c>
+      <c r="R30">
+        <v>719.574585822576</v>
+      </c>
+      <c r="S30">
+        <v>0.0307004274564465</v>
+      </c>
+      <c r="T30">
+        <v>0.03753059193901685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.888947</v>
+      </c>
+      <c r="H31">
+        <v>15.777894</v>
+      </c>
+      <c r="I31">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J31">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>92.32611850000001</v>
+      </c>
+      <c r="N31">
+        <v>184.652237</v>
+      </c>
+      <c r="O31">
+        <v>0.802941330007389</v>
+      </c>
+      <c r="P31">
+        <v>0.7442790833867324</v>
+      </c>
+      <c r="Q31">
+        <v>728.3558555622195</v>
+      </c>
+      <c r="R31">
+        <v>2913.423422248878</v>
+      </c>
+      <c r="S31">
+        <v>0.1864504657062422</v>
+      </c>
+      <c r="T31">
+        <v>0.1519543738207521</v>
       </c>
     </row>
   </sheetData>
